--- a/Tabela  1g - Taxa de Fecundidade Total por fontes.xlsx
+++ b/Tabela  1g - Taxa de Fecundidade Total por fontes.xlsx
@@ -425,6 +425,9 @@
       <c r="B5">
         <v>1.709469084046935</v>
       </c>
+      <c r="C5">
+        <v>1.698499679041322</v>
+      </c>
       <c r="D5">
         <v>1.6533</v>
       </c>
@@ -434,7 +437,10 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>1.752832668371298</v>
+        <v>1.70905143608923</v>
+      </c>
+      <c r="C6">
+        <v>1.723447593020999</v>
       </c>
       <c r="D6">
         <v>1.6965</v>
@@ -445,10 +451,10 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>1.643444894249424</v>
+        <v>1.752832668371298</v>
       </c>
       <c r="C7">
-        <v>1.693243812359978</v>
+        <v>1.701655743954553</v>
       </c>
       <c r="D7">
         <v>1.7149</v>
@@ -459,10 +465,10 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>1.685713279782598</v>
+        <v>1.643444894249424</v>
       </c>
       <c r="C8">
-        <v>1.665201840957572</v>
+        <v>1.693243812359978</v>
       </c>
       <c r="D8">
         <v>1.6199</v>
@@ -473,10 +479,10 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>1.667773164205939</v>
+        <v>1.685713279782598</v>
       </c>
       <c r="C9">
-        <v>1.651162336052278</v>
+        <v>1.665201840957572</v>
       </c>
       <c r="D9">
         <v>1.6837</v>
@@ -487,10 +493,10 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>1.600834305299045</v>
+        <v>1.667773164205939</v>
       </c>
       <c r="C10">
-        <v>1.584606573657379</v>
+        <v>1.651162336052278</v>
       </c>
       <c r="D10">
         <v>1.6794</v>
@@ -501,10 +507,10 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>1.485162166525396</v>
+        <v>1.600834305299045</v>
       </c>
       <c r="C11">
-        <v>1.507068961055708</v>
+        <v>1.584606573657379</v>
       </c>
       <c r="D11">
         <v>1.6751</v>
@@ -515,7 +521,10 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>1.435038951228906</v>
+        <v>1.485162166525396</v>
+      </c>
+      <c r="C12">
+        <v>1.507068961055708</v>
       </c>
       <c r="D12">
         <v>1.6709</v>
@@ -524,6 +533,9 @@
     <row r="13">
       <c r="A13">
         <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>1.435038951228906</v>
       </c>
       <c r="D13">
         <v>1.6666</v>
